--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3116.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3116.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.613031478221312</v>
+        <v>2.207052946090698</v>
       </c>
       <c r="B1">
-        <v>2.029050376517013</v>
+        <v>2.798991680145264</v>
       </c>
       <c r="C1">
-        <v>2.93849625165455</v>
+        <v>2.956960678100586</v>
       </c>
       <c r="D1">
-        <v>5.92684863241534</v>
+        <v>2.594427585601807</v>
       </c>
       <c r="E1">
-        <v>0.7191322823963054</v>
+        <v>0.8945170640945435</v>
       </c>
     </row>
   </sheetData>
